--- a/outputs-HGR-r202-archive/g__Barnesiella.xlsx
+++ b/outputs-HGR-r202-archive/g__Barnesiella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,568 +527,74 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24574.fa</t>
+          <t>even_MAG-GUT66097.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1595553345062533</v>
+        <v>6.030413205992199e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1595553345062533</v>
+        <v>6.030413205992199e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1595553345062533</v>
+        <v>6.030413205992201e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1989319260553953</v>
+        <v>0.006942265358678717</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1627064353522281</v>
+        <v>0.8577258001325669</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1596956350736166</v>
+        <v>0.1353319345085735</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1989319260553953</v>
+        <v>0.8577258001325669</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538705</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
+          <t>s__Barnesiella sp900538705</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24670.fa</t>
+          <t>even_MAG-GUT70404.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1525166861714358</v>
+        <v>7.653680604538085e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1525166861714358</v>
+        <v>7.653680604538085e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1525166861714357</v>
+        <v>7.653680604538083e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2357040121140872</v>
+        <v>0.07492745979368327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1540851004522077</v>
+        <v>0.7914249593740735</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1526608289193979</v>
+        <v>0.1336475808299472</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2357040121140872</v>
+        <v>0.7914249593740735</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>s__Barnesiella sp900538555</t>
+          <t>s__Barnesiella sp900538705</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT35732.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1527882685521257</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1527882685521257</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1527882685521257</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2350529802682624</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1536138647867982</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1529683492885622</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2350529802682624</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT36733.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1567927002995025</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1567927002995025</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1567927002995025</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2040365007847678</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1685949445010044</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1569904538157204</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.2040365007847678</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT36796.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.161435085041567</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.161435085041567</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.161435085041567</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.181135050172341</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1730589832173834</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1615007114855745</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.181135050172341</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT41860.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1614513440538941</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1614513440538941</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1614513440538941</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1768242662965206</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1773361230668971</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1614855784749002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1773361230668971</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538705</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538705(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT43957.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1537446539584713</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1537446539584713</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.1537446539584713</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2295376828564333</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1553604116625709</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.153867943605582</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.2295376828564333</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT44944.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.1611683202500089</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1611683202500089</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.1611683202500089</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1749415132242776</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.180326682002106</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1612268440235898</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.180326682002106</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538705</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538705(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT45214.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.1496164212474128</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1496164212474128</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1496164212474128</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2503584184447229</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1508833497337508</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1499089680792879</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.2503584184447229</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT47800.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.1605692899105128</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1605692899105128</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1605692899105128</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.178421372002592</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.1792703239753224</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.1606004342905474</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.1792703239753224</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538705</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538705(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT56417.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1616127024893782</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1616127024893782</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1616127024893782</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.1858394180450517</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1676093711426052</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1617131033442087</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.1858394180450517</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT593.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.1608195160686394</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1608195160686394</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1608195160686394</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1790298574081723</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1776467696266406</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1608648247592687</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.1790298574081723</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT62658.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.1614979636218927</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1614979636218927</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1614979636218927</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1813436967413191</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.172612133085364</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1615502793076387</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1813436967413191</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538555(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66097.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6.030413205992199e-14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6.030413205992199e-14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6.030413205992201e-14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.006942265358678717</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8577258001325669</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.1353319345085735</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.8577258001325669</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538705</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538705</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70404.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7.653680604538085e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7.653680604538085e-13</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7.653680604538083e-13</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.07492745979368327</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.7914249593740735</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.1336475808299472</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.7914249593740735</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>s__Barnesiella sp900538705</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
         <is>
           <t>s__Barnesiella sp900538705</t>
         </is>
